--- a/src/test/resources/com/liveproj/excel/testdata.xlsx
+++ b/src/test/resources/com/liveproj/excel/testdata.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{631F9567-3537-4AC6-807B-CD29A7AFB12E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbandari\eclipse-workspace\PageObjectModelBasics\src\test\resources\com\liveproj\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1F7B09-9EDF-4596-806D-FB8B4D1E4193}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16836" windowHeight="2796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16836" windowHeight="2796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Suite" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,6 @@
     <sheet name="SignUpTest" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -461,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6499614B-18C7-4364-942B-6D544253090C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,22 +487,22 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
+      <c r="A3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -514,7 +518,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{7743EF4F-83D6-4394-AF05-F53CA646FEC4}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7743EF4F-83D6-4394-AF05-F53CA646FEC4}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{9610110A-432F-4117-BB7F-45FA16FB0726}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -559,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C916CD-1817-471F-B943-34390D43B8FA}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/com/liveproj/excel/testdata.xlsx
+++ b/src/test/resources/com/liveproj/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbandari\eclipse-workspace\PageObjectModelBasics\src\test\resources\com\liveproj\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1F7B09-9EDF-4596-806D-FB8B4D1E4193}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B40C07A-083D-499F-9D12-BBC7A168D18B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16836" windowHeight="2796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Y</t>
   </si>
@@ -70,15 +70,6 @@
   </si>
   <si>
     <t>signuppassword</t>
-  </si>
-  <si>
-    <t>reportrecipient2019@gmail.com</t>
-  </si>
-  <si>
-    <t>96gqee2022</t>
-  </si>
-  <si>
-    <t>amitjain2019@gmail.com</t>
   </si>
   <si>
     <t>asdfgdfg9812</t>
@@ -466,7 +457,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,28 +489,14 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7743EF4F-83D6-4394-AF05-F53CA646FEC4}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{9610110A-432F-4117-BB7F-45FA16FB0726}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -586,10 +563,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>

--- a/src/test/resources/com/liveproj/excel/testdata.xlsx
+++ b/src/test/resources/com/liveproj/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbandari\eclipse-workspace\PageObjectModelBasics\src\test\resources\com\liveproj\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B40C07A-083D-499F-9D12-BBC7A168D18B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65BDD4D-37A9-435B-ADAD-EFCCC2143DCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16836" windowHeight="2796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,12 +97,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,10 +120,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -454,11 +447,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6499614B-18C7-4364-942B-6D544253090C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -487,12 +478,6 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/com/liveproj/excel/testdata.xlsx
+++ b/src/test/resources/com/liveproj/excel/testdata.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbandari\eclipse-workspace\PageObjectModelBasics\src\test\resources\com\liveproj\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65BDD4D-37A9-435B-ADAD-EFCCC2143DCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{79B7A147-714C-4C5D-9520-15110B18675C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16836" windowHeight="2796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10968" windowHeight="2796" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Suite" sheetId="1" r:id="rId1"/>
@@ -19,6 +14,7 @@
     <sheet name="SignUpTest" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:I7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/src/test/resources/com/liveproj/excel/testdata.xlsx
+++ b/src/test/resources/com/liveproj/excel/testdata.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{79B7A147-714C-4C5D-9520-15110B18675C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbandari\eclipse-workspace\PageObjectModelBasics\src\test\resources\com\liveproj\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1524D7E1-6FCD-4A39-9D54-58E9E6053917}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10968" windowHeight="2796" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +19,6 @@
     <sheet name="SignUpTest" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,9 +51,6 @@
     <t>runmode</t>
   </si>
   <si>
-    <t>saanwisrika@gmail.com</t>
-  </si>
-  <si>
     <t>June@2019$</t>
   </si>
   <si>
@@ -72,6 +73,9 @@
   </si>
   <si>
     <t>arazzradhyai2016qw@gmail.com</t>
+  </si>
+  <si>
+    <t>reportrecipient2019@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -430,7 +434,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -445,7 +449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6499614B-18C7-4364-942B-6D544253090C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -466,10 +472,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -498,7 +504,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -506,7 +512,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -533,10 +539,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -544,10 +550,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>

--- a/src/test/resources/com/liveproj/excel/testdata.xlsx
+++ b/src/test/resources/com/liveproj/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbandari\eclipse-workspace\PageObjectModelBasics\src\test\resources\com\liveproj\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1524D7E1-6FCD-4A39-9D54-58E9E6053917}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C444489-DB48-4C19-9D78-1407B615B229}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10968" windowHeight="2796" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>runmode</t>
   </si>
   <si>
-    <t>June@2019$</t>
-  </si>
-  <si>
     <t>CreateAccountTest</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>reportrecipient2019@gmail.com</t>
+  </si>
+  <si>
+    <t>96gqee2022</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,10 +472,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -504,7 +504,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -539,10 +539,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -550,10 +550,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
